--- a/teaching/traditional_assets/database/data/botswana/botswana_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/botswana/botswana_financial_svcs_non_bank_insurance.xlsx
@@ -597,34 +597,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.00393073747967422</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.00196536873983711</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>41</v>
+        <v>46.9</v>
       </c>
       <c r="L2">
-        <v>0.2186666666666667</v>
+        <v>0.2720417633410673</v>
       </c>
       <c r="M2">
-        <v>24</v>
+        <v>21.6</v>
       </c>
       <c r="N2">
-        <v>0.1711840228245364</v>
+        <v>0.1520056298381422</v>
       </c>
       <c r="O2">
-        <v>0.5853658536585366</v>
+        <v>0.4605543710021323</v>
       </c>
       <c r="P2">
-        <v>24</v>
+        <v>21.6</v>
       </c>
       <c r="Q2">
-        <v>0.1711840228245364</v>
+        <v>0.1520056298381422</v>
       </c>
       <c r="R2">
-        <v>0.5853658536585366</v>
+        <v>0.4605543710021323</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -633,67 +633,61 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>43.4</v>
+        <v>52.9</v>
       </c>
       <c r="V2">
-        <v>0.3095577746077033</v>
+        <v>0.3722730471498945</v>
       </c>
       <c r="W2">
-        <v>0.1107210369970294</v>
+        <v>0.1242713301536831</v>
       </c>
       <c r="X2">
-        <v>0.05144458053813607</v>
+        <v>0.03901251200783102</v>
       </c>
       <c r="Y2">
-        <v>0.05927645645889336</v>
+        <v>0.08525881814585207</v>
       </c>
       <c r="Z2">
-        <v>0.2584727599502097</v>
+        <v>0.2199007640403577</v>
       </c>
       <c r="AA2">
-        <v>0.0005079942825055635</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.03895790991211526</v>
+        <v>0.03173547195027669</v>
       </c>
       <c r="AC2">
-        <v>-0.03844991562960969</v>
+        <v>-0.03173547195027669</v>
       </c>
       <c r="AD2">
-        <v>459</v>
+        <v>412.7</v>
       </c>
       <c r="AE2">
-        <v>3.214933612805419</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>462.2149336128054</v>
+        <v>412.7</v>
       </c>
       <c r="AG2">
-        <v>418.8149336128054</v>
+        <v>359.8</v>
       </c>
       <c r="AH2">
-        <v>0.7672700456491144</v>
+        <v>0.7438716654650325</v>
       </c>
       <c r="AI2">
-        <v>0.5304188805859744</v>
+        <v>0.5183371012308465</v>
       </c>
       <c r="AJ2">
-        <v>0.749201691099888</v>
+        <v>0.7168758716875873</v>
       </c>
       <c r="AK2">
-        <v>0.5058060146154933</v>
+        <v>0.4840575810574466</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>332.6086956521739</v>
-      </c>
-      <c r="AP2">
-        <v>303.4890823281199</v>
       </c>
     </row>
     <row r="3">
@@ -719,34 +713,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.00393073747967422</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.00196536873983711</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>41</v>
+        <v>46.9</v>
       </c>
       <c r="L3">
-        <v>0.2186666666666667</v>
+        <v>0.2720417633410673</v>
       </c>
       <c r="M3">
-        <v>24</v>
+        <v>21.6</v>
       </c>
       <c r="N3">
-        <v>0.1711840228245364</v>
+        <v>0.1520056298381422</v>
       </c>
       <c r="O3">
-        <v>0.5853658536585366</v>
+        <v>0.4605543710021323</v>
       </c>
       <c r="P3">
-        <v>24</v>
+        <v>21.6</v>
       </c>
       <c r="Q3">
-        <v>0.1711840228245364</v>
+        <v>0.1520056298381422</v>
       </c>
       <c r="R3">
-        <v>0.5853658536585366</v>
+        <v>0.4605543710021323</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -755,67 +749,61 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>43.4</v>
+        <v>52.9</v>
       </c>
       <c r="V3">
-        <v>0.3095577746077033</v>
+        <v>0.3722730471498945</v>
       </c>
       <c r="W3">
-        <v>0.1107210369970294</v>
+        <v>0.1242713301536831</v>
       </c>
       <c r="X3">
-        <v>0.05144458053813607</v>
+        <v>0.03901251200783102</v>
       </c>
       <c r="Y3">
-        <v>0.05927645645889336</v>
+        <v>0.08525881814585207</v>
       </c>
       <c r="Z3">
-        <v>0.2584727599502097</v>
+        <v>0.2199007640403577</v>
       </c>
       <c r="AA3">
-        <v>0.0005079942825055635</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.03895790991211526</v>
+        <v>0.03173547195027669</v>
       </c>
       <c r="AC3">
-        <v>-0.03844991562960969</v>
+        <v>-0.03173547195027669</v>
       </c>
       <c r="AD3">
-        <v>459</v>
+        <v>412.7</v>
       </c>
       <c r="AE3">
-        <v>3.214933612805419</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>462.2149336128054</v>
+        <v>412.7</v>
       </c>
       <c r="AG3">
-        <v>418.8149336128054</v>
+        <v>359.8</v>
       </c>
       <c r="AH3">
-        <v>0.7672700456491144</v>
+        <v>0.7438716654650325</v>
       </c>
       <c r="AI3">
-        <v>0.5304188805859744</v>
+        <v>0.5183371012308465</v>
       </c>
       <c r="AJ3">
-        <v>0.749201691099888</v>
+        <v>0.7168758716875873</v>
       </c>
       <c r="AK3">
-        <v>0.5058060146154933</v>
+        <v>0.4840575810574466</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>332.6086956521739</v>
-      </c>
-      <c r="AP3">
-        <v>303.4890823281199</v>
       </c>
     </row>
   </sheetData>
